--- a/DOC/make.xlsx
+++ b/DOC/make.xlsx
@@ -2497,9 +2497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B500"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>

--- a/DOC/make.xlsx
+++ b/DOC/make.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="589">
   <si>
     <t>R1</t>
   </si>
@@ -1670,6 +1671,192 @@
   </si>
   <si>
     <t>0001D6=0800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>space</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00010000</t>
+  </si>
+  <si>
+    <t>00100001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1713,10 +1900,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2497,7 +2685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7010,4 +7198,659 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="10.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="42.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="D1" t="str">
+        <f>DEC2BIN(BIN2DEC($B$1)+ROW(A1)-1,8)</f>
+        <v>00010000</v>
+      </c>
+      <c r="E1" t="str">
+        <f>DEC2HEX(CODE(A1),2)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D46" si="0">DEC2BIN(BIN2DEC($B$1)+ROW(A2)-1,8)</f>
+        <v>00010001</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E46" si="1">DEC2HEX(CODE(A2),2)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>00010010</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>00010011</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>00010100</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>00010101</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>00010110</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>00010111</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>00011000</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>00011001</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D11" t="str">
+        <f>DEC2BIN(BIN2DEC($B$11)+ROW(A11)-11,8)</f>
+        <v>00100001</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" ref="D12:D36" si="2">DEC2BIN(BIN2DEC($B$11)+ROW(A12)-11,8)</f>
+        <v>00100010</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="2"/>
+        <v>00100011</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="2"/>
+        <v>00100100</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="2"/>
+        <v>00100101</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="2"/>
+        <v>00100110</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="2"/>
+        <v>00100111</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="2"/>
+        <v>00101000</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="2"/>
+        <v>00101001</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="2"/>
+        <v>00101010</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="1"/>
+        <v>4A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="2"/>
+        <v>00101011</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="1"/>
+        <v>4B</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="2"/>
+        <v>00101100</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="1"/>
+        <v>4C</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="2"/>
+        <v>00101101</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="1"/>
+        <v>4D</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="2"/>
+        <v>00101110</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="1"/>
+        <v>4E</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="2"/>
+        <v>00101111</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="1"/>
+        <v>4F</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="2"/>
+        <v>00110000</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="2"/>
+        <v>00110001</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="2"/>
+        <v>00110010</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="2"/>
+        <v>00110011</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="2"/>
+        <v>00110100</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="2"/>
+        <v>00110101</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="2"/>
+        <v>00110110</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="2"/>
+        <v>00110111</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="2"/>
+        <v>00111000</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="2"/>
+        <v>00111001</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="2"/>
+        <v>00111010</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="1"/>
+        <v>5A</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" t="str">
+        <f>DEC2BIN(BIN2DEC(C37),8)</f>
+        <v>00000000</v>
+      </c>
+      <c r="E37" t="str">
+        <f>DEC2HEX(CODE(" "))</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C38">
+        <v>1100</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" ref="D38:D46" si="3">DEC2BIN(BIN2DEC(C38),8)</f>
+        <v>00001100</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="1"/>
+        <v>2C</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C39">
+        <v>111011</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="3"/>
+        <v>00111011</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="1"/>
+        <v>5B</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C40">
+        <v>111101</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="3"/>
+        <v>00111101</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="1"/>
+        <v>5D</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C41">
+        <v>11101</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="3"/>
+        <v>00011101</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="1"/>
+        <v>3D</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="3"/>
+        <v>00000001</v>
+      </c>
+      <c r="E42" t="str">
+        <f>DEC2HEX(CODE("'"),2)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C43">
+        <v>1110</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="3"/>
+        <v>00001110</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="1"/>
+        <v>2E</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C44">
+        <v>11011</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="3"/>
+        <v>00011011</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="1"/>
+        <v>3B</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C45">
+        <v>11111100</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="3"/>
+        <v>11111100</v>
+      </c>
+      <c r="E45" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C46">
+        <v>11110000</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="3"/>
+        <v>11110000</v>
+      </c>
+      <c r="E46">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>